--- a/Eredmények.xlsx
+++ b/Eredmények.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="82">
   <si>
     <t>-</t>
   </si>
@@ -230,6 +230,36 @@
   </si>
   <si>
     <t>NORMÁL</t>
+  </si>
+  <si>
+    <t>infeasible</t>
+  </si>
+  <si>
+    <t>1239.25</t>
+  </si>
+  <si>
+    <t>9.4614</t>
+  </si>
+  <si>
+    <t>1119.375</t>
+  </si>
+  <si>
+    <t>9.8006</t>
+  </si>
+  <si>
+    <t>1245.5</t>
+  </si>
+  <si>
+    <t>10.1766</t>
+  </si>
+  <si>
+    <t>1238.5</t>
+  </si>
+  <si>
+    <t>1119.875</t>
+  </si>
+  <si>
+    <t>9.5781</t>
   </si>
 </sst>
 </file>
@@ -282,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -295,13 +325,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,34 +665,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -737,7 +770,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -778,7 +811,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -819,7 +852,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -860,7 +893,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -901,7 +934,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -942,7 +975,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -983,7 +1016,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
@@ -1024,7 +1057,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3">
@@ -1065,7 +1098,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1106,7 +1139,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1147,7 +1180,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1188,7 +1221,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1229,7 +1262,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1270,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1311,7 +1344,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1352,7 +1385,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1393,34 +1426,34 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -1501,104 +1534,209 @@
       <c r="A29" s="3">
         <v>1</v>
       </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
+      <c r="B30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3</v>
       </c>
+      <c r="B31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1122</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>1241</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>20</v>
       </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>

--- a/Eredmények.xlsx
+++ b/Eredmények.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="109">
   <si>
     <t>-</t>
   </si>
@@ -260,6 +260,87 @@
   </si>
   <si>
     <t>9.5781</t>
+  </si>
+  <si>
+    <t>1246.75</t>
+  </si>
+  <si>
+    <t>10.4973</t>
+  </si>
+  <si>
+    <t>1244.5</t>
+  </si>
+  <si>
+    <t>10.3355</t>
+  </si>
+  <si>
+    <t>1241.5</t>
+  </si>
+  <si>
+    <t>10.1188</t>
+  </si>
+  <si>
+    <t>1252.25</t>
+  </si>
+  <si>
+    <t>10.8904</t>
+  </si>
+  <si>
+    <t>1269.5</t>
+  </si>
+  <si>
+    <t>12.1012</t>
+  </si>
+  <si>
+    <t>1265.25</t>
+  </si>
+  <si>
+    <t>11.8158</t>
+  </si>
+  <si>
+    <t>1270.75</t>
+  </si>
+  <si>
+    <t>12.1875</t>
+  </si>
+  <si>
+    <t>1267.25</t>
+  </si>
+  <si>
+    <t>11.955</t>
+  </si>
+  <si>
+    <t>1121.625</t>
+  </si>
+  <si>
+    <t>10.8406</t>
+  </si>
+  <si>
+    <t>1268.25</t>
+  </si>
+  <si>
+    <t>12.0047</t>
+  </si>
+  <si>
+    <t>1116.125</t>
+  </si>
+  <si>
+    <t>11.4889</t>
+  </si>
+  <si>
+    <t>1273.5</t>
+  </si>
+  <si>
+    <t>12.3675</t>
+  </si>
+  <si>
+    <t>1271.75</t>
+  </si>
+  <si>
+    <t>12.2567</t>
+  </si>
+  <si>
+    <t>11.9452</t>
   </si>
 </sst>
 </file>
@@ -312,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -329,6 +410,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,29 +754,29 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -1431,29 +1515,29 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -1534,53 +1618,78 @@
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>6</v>
       </c>
@@ -1593,8 +1702,17 @@
       <c r="D34" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F34" s="8">
+        <v>1258</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>7</v>
       </c>
@@ -1607,8 +1725,17 @@
       <c r="D35" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1116</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1621,8 +1748,17 @@
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F36" s="8">
+        <v>1261</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>9</v>
       </c>
@@ -1635,8 +1771,17 @@
       <c r="D37" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1116</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10</v>
       </c>
@@ -1649,94 +1794,253 @@
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>11</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>12</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>15</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>16</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>17</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>18</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>19</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>20</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+  <mergeCells count="18">
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -1745,6 +2049,11 @@
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="N25:P25"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Eredmények.xlsx
+++ b/Eredmények.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="128">
   <si>
     <t>-</t>
   </si>
@@ -341,6 +341,63 @@
   </si>
   <si>
     <t>11.9452</t>
+  </si>
+  <si>
+    <t>1239.5</t>
+  </si>
+  <si>
+    <t>1122.875</t>
+  </si>
+  <si>
+    <t>9.409</t>
+  </si>
+  <si>
+    <t>9.9055</t>
+  </si>
+  <si>
+    <t>9.7883</t>
+  </si>
+  <si>
+    <t>9.9336</t>
+  </si>
+  <si>
+    <t>9.7337</t>
+  </si>
+  <si>
+    <t>10.8726</t>
+  </si>
+  <si>
+    <t>1249.75</t>
+  </si>
+  <si>
+    <t>10.4621</t>
+  </si>
+  <si>
+    <t>1267.75</t>
+  </si>
+  <si>
+    <t>11.97</t>
+  </si>
+  <si>
+    <t>1261.75</t>
+  </si>
+  <si>
+    <t>11.5514</t>
+  </si>
+  <si>
+    <t>1274.25</t>
+  </si>
+  <si>
+    <t>12.4191</t>
+  </si>
+  <si>
+    <t>12.0146</t>
+  </si>
+  <si>
+    <t>1272.5</t>
+  </si>
+  <si>
+    <t>12.3084</t>
   </si>
 </sst>
 </file>
@@ -393,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -410,6 +467,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -727,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,29 +814,29 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -1515,29 +1575,29 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -1618,78 +1678,128 @@
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="F29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="N29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="J30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="N31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="N32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="N33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>6</v>
       </c>
@@ -1711,8 +1821,26 @@
       <c r="H34" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1119</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>7</v>
       </c>
@@ -1734,8 +1862,26 @@
       <c r="H35" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" s="9">
+        <v>1243</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="9">
+        <v>1116</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1757,8 +1903,26 @@
       <c r="H36" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="9">
+        <v>1240</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="9">
+        <v>1116</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>9</v>
       </c>
@@ -1780,8 +1944,26 @@
       <c r="H37" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="9">
+        <v>1242</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" s="9">
+        <v>1116</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10</v>
       </c>
@@ -1803,8 +1985,26 @@
       <c r="H38" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>11</v>
       </c>
@@ -1826,8 +2026,26 @@
       <c r="H39" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="9">
+        <v>1252</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>12</v>
       </c>
@@ -1849,8 +2067,26 @@
       <c r="H40" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -1872,8 +2108,26 @@
       <c r="H41" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>14</v>
       </c>
@@ -1895,8 +2149,26 @@
       <c r="H42" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>15</v>
       </c>
@@ -1918,8 +2190,26 @@
       <c r="H43" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>16</v>
       </c>
@@ -1941,8 +2231,26 @@
       <c r="H44" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>17</v>
       </c>
@@ -1964,8 +2272,26 @@
       <c r="H45" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>18</v>
       </c>
@@ -1987,8 +2313,26 @@
       <c r="H46" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>19</v>
       </c>
@@ -2010,8 +2354,26 @@
       <c r="H47" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>20</v>
       </c>
@@ -2033,14 +2395,42 @@
       <c r="H48" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="J48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
+  <mergeCells count="28">
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -2049,11 +2439,11 @@
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="N25:P25"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
